--- a/samples/SA-عينة-محلات-البقالة-والسوبرماركت-preview.xlsx
+++ b/samples/SA-عينة-محلات-البقالة-والسوبرماركت-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="393">
   <si>
     <t>GoogleMaps Link</t>
   </si>
@@ -40,310 +40,16 @@
     <t>Website</t>
   </si>
   <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D8%A7%D8%A6%D8%AF+%D8%B3%D9%88%D8%A8%D8%B1+%D9%85%D8%A7%D8%B1%D9%83%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15b90637cc47f213:0xea35d9aca56506e4!8m2!3d24.0911228!4d38.0290022!16s%2Fg%2F11hbv3_v95!19sChIJE_JHzDcGuRUR5AZlpazZNeo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%B1%D9%8A%D9%85%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15b9096b98eb5929:0xd92a7572f903d145!8m2!3d24.1080112!4d38.0612065!16s%2Fg%2F11hdxc5zq9!19sChIJKVnrmGsJuRURRdED-XJ1Ktk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/ALSAFI+SUPERMARKET/data=!4m7!3m6!1s0x15b907336904c5a5:0xf1eb008f91432b57!8m2!3d24.0889475!4d38.0553691!16s%2Fg%2F11g4cmbnvy!19sChIJpcUEaTMHuRURVytDkY8A6_E?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D8%A8%D9%86%D8%AF%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15b907d12b9c23c1:0xe4c81210f2fa3bf7!8m2!3d24.1055011!4d38.0176022!16s%2Fg%2F11fn5txs3m!19sChIJwSOcK9EHuRUR9zv68hASyOQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D8%A7%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b90f7fdb131111:0x17d7a86ffdabdd99!8m2!3d24.0890978!4d38.1037546!16s%2Fg%2F11bwfntv_5!19sChIJERET238PuRURmd2r_W-o1xc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D8%B3%D9%88%D8%A7%D9%82+%D8%A7%D9%84%D8%AF%D9%8A%D8%B1%D8%A9+%D8%A8%D9%8A%D9%86%D8%A8%D8%B9+%D8%A7%D9%84%D8%B5%D9%86%D8%A7%D8%B9%D9%8A%D8%A9+-+%D8%AD%D9%8A+%D8%A7%D9%84%D8%B5%D8%A8%D8%AD+-+%D9%85%D8%B1%D9%83%D8%B2+%D8%A3%D8%AD%D9%85%D8%AF+%D8%A7%D9%84%D8%B4%D8%BA%D8%AF%D9%84%D9%8A+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b91b84d5d7c3ab:0xf7b6e03f712f39f!8m2!3d23.9905253!4d38.1977942!16s%2Fg%2F1wl06cqj!19sChIJq8PX1YQbuRURn_MS9wNuew8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%86%D8%AF%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15b9062bead896af:0x1c2c45f7d5c961af!8m2!3d24.1076998!4d38.0248136!16s%2Fg%2F11b7ln8bmg!19sChIJr5bY6isGuRURr2HJ1fdFLBw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%AA%D8%A7%D8%AC+%D8%A7%D9%84%D8%AF%D9%85%D8%B4%D9%82%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b90573f3b985f5:0xbf3b5ef5d15c55fd!8m2!3d24.0903703!4d38.0910849!16s%2Fg%2F11s8tnrzkb!19sChIJ9YW583MFuRUR_VVc0fVeO78?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%B5%D9%81%D9%88%D8%A9+%D8%A7%D9%84%D8%A7%D9%86%D8%AF%D9%84%D8%B3+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b9057b9b0c3499:0x6fa8a90344e8f8c0!8m2!3d24.0889289!4d38.0885954!16s%2Fg%2F11t4wph3yy!19sChIJmTQMm3sFuRURwPjoRAOpqG8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%84%D8%AA%D9%8A+%D8%A7%D9%84%D9%8A%D9%88%D9%85%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x157f579c0556ebbd:0x3431b1bacba04896!8m2!3d24.0094159!4d38.1789338!16s%2Fg%2F1yfjvnnjf!19sChIJvetWBZxXfxURlkigy7qxMTQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D8%B4%D8%B1%D8%A7%D9%82%D8%A9+%D9%8A%D9%86%D8%A8%D8%B9+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b907160633be89:0x5342340fff3759dc!8m2!3d24.0820563!4d38.0349971!16s%2Fg%2F11t58vk7sf!19sChIJib4zBhYHuRUR3Fk3_w80QlM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D8%A7%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b905891612877d:0xa4907406a83d7afb!8m2!3d24.0886299!4d38.0909514!16s%2Fg%2F1hc3kg6gp!19sChIJfYcSFokFuRUR-3o9qAZ0kKQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D8%A8%D8%B1%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D8%A7%D9%84%D8%B3%D9%84%D8%A7%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15b90630db16feeb:0xaaec4ed7969173a4!8m2!3d24.096024!4d38.0293529!16s%2Fg%2F11c55s5mcs!19sChIJ6_4W2zAGuRURpHORltdO7Ko?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%81%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15b90f953a74d477:0xca54d6d665f8a99e!8m2!3d24.1108393!4d38.0878409!16s%2Fg%2F11fq93ctdf!19sChIJd9R0OpUPuRURnqn4ZdbWVMo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D9%88%D9%85%D8%AE%D8%A8%D8%B2+%D9%81%D8%B1%D8%AD%D8%A7%D9%86%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15b907de88b955a5:0xfa4f0787136d11eb!8m2!3d24.112843!4d38.0139858!16s%2Fg%2F11s7yt6yrr!19sChIJpVW5iN4HuRUR6xFtE4cHT_o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D9%86%D9%85%D8%A7+%D8%A7%D9%84%D9%85%D8%B1%D9%88%D8%AC%E2%80%AD/data=!4m7!3m6!1s0x15b90756a241fa87:0x59899fbc0e984b54!8m2!3d24.104911!4d38.0181885!16s%2Fg%2F11kq8g1sfb!19sChIJh_pBolYHuRURVEuYDryfiVk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%AD%D9%85%D9%8A%D8%B1%D9%8A+%D9%84%D9%84%D8%AA%D8%B3%D9%88%D9%8A%D9%82%E2%80%AD/data=!4m7!3m6!1s0x15b9095cf5a7f333:0xbb65ccddd2f8e739!8m2!3d24.1113356!4d38.0614042!16s%2Fg%2F11ss4n54pt!19sChIJM_On9VwJuRUROef40t3MZbs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%AE%D9%8A%D8%B1%D8%A7%D8%AA+%D8%A7%D9%84%D9%85%D8%AF%D9%8A%D9%86%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15b91b2ece161c59:0x26193a8a813c81b7!8m2!3d24.0278406!4d38.2015594!16s%2Fg%2F11rj3j45x8!19sChIJWRwWzi4buRURt4E8gYo6GSY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D9%81%D8%B1%D8%AD%E2%80%AD/data=!4m7!3m6!1s0x15b90636c72bcd85:0x12b464858bf583dc!8m2!3d24.0947877!4d38.0276039!16s%2Fg%2F11gfklcxhs!19sChIJhc0rxzYGuRUR3IP1i4VktBI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D8%AC%D9%85%D9%84+%D8%B9%D8%B1%D8%A8%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b907d7ae253ea1:0x6b2188185f34039e!8m2!3d24.0796512!4d38.0438446!16s%2Fg%2F11mb0njr4x!19sChIJoT4lrtcHuRURngM0XxiIIWs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D8%A8%D8%B1+%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D8%B3%D9%84%D8%A9+%D8%A7%D9%84%D8%AE%D9%8A%D8%B1%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15b907a837a568d9:0x45a224f459c535f9!8m2!3d24.1004411!4d38.0233546!16s%2Fg%2F11hzlmh1lr!19sChIJ2WilN6gHuRUR-TXFWfQkokU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%88%D9%86+%D8%B2%D9%88%D9%86+%D9%88%D9%86+%D8%B3%D8%AA%D9%88%D8%A8+-+One+zone+one+stop%E2%80%AD/data=!4m7!3m6!1s0x15b9070095308495:0xa3c61dfdf153f0d4!8m2!3d24.098201!4d38.0329506!16s%2Fg%2F11kqsf9vlx!19sChIJlYQwlQAHuRUR1PBT8f0dxqM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%84%D8%AA%D9%8A+%D8%A7%D9%84%D9%8A%D9%88%D9%85%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b905932108bf2b:0xb08a52f9493e30ac!8m2!3d24.0825559!4d38.1055289!16s%2Fg%2F11h7_p28ny!19sChIJK78IIZMFuRURrDA-SflSirA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D8%A8%D9%8A%D8%AF%D9%88+%D9%85%D8%A7%D8%B1%D9%83%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15b91b73f05aacbd:0x55ccf422f04b18be!8m2!3d24.0005163!4d38.1842086!16s%2Fg%2F11gfb37hj1!19sChIJvaxa8HMbuRURvhhL8CL0zFU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D8%A8%D8%B1+%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D9%85%D8%AA%D8%A7%D8%AC%D8%B1+%D9%8A%D9%86%D8%A8%D8%B9%E2%80%AD/data=!4m7!3m6!1s0x15b95b9b3f333f9d:0xf3be29e8c00ff43e!8m2!3d24.3288086!4d38.4283123!16s%2Fg%2F11hbfk8gzd!19sChIJnT8zP5tbuRURPvQPwOgpvvM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D8%A8%D8%B1+%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D8%A7%D9%84%D8%AA%D8%AD%D9%84%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15b920f80e03de5b:0x2deadde7cdbee9e4!8m2!3d23.8841274!4d38.3593608!16s%2Fg%2F11hd9jtcjn!19sChIJW94DDvgguRUR5Om-zefd6i0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%A8%D8%B2+%D9%88%D8%B3%D8%A8%D8%B1+%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D8%A7%D9%84%D8%A8%D8%AD%D8%B1+%D8%A7%D9%84%D8%A7%D8%AD%D9%85%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15b90700031ec2a9:0x82f71f229e7f8a28!8m2!3d24.0802906!4d38.044409!16s%2Fg%2F11vzdyrlbl!19sChIJqcIeAwAHuRURKIp_niIf94I?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D9%88%D9%84+%D8%BA%D8%B0%D8%A7%D8%A1+-+first+food+market%E2%80%AD/data=!4m7!3m6!1s0x15b9099031ccc043:0x5d6ef43e1676f980!8m2!3d24.1163542!4d38.0190445!16s%2Fg%2F11sjy7pzn5!19sChIJQ8DMMZAJuRURgPl2Fj70bl0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%AA%D8%B3%D9%88%D9%8A%D9%82+%D9%83%D8%A7%D8%B1%D9%81%D9%88%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15b9073965422f79:0x8065d72844e1e98!8m2!3d24.1049826!4d38.047217!16s%2Fg%2F11pz3k6c2q!19sChIJeS9CZTkHuRURmB5OhHJdBgg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D9%88%D8%A7%D9%82+%D8%A7%D9%84%D8%B9%D8%B1%D8%A8%D9%8A%D9%87+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15b9077023448517:0x8211b733cc07e628!8m2!3d24.0836325!4d38.0574832!16s%2Fg%2F11jt2dr19w!19sChIJF4VEI3AHuRURKOYHzDO3EYI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%80%D9%84%D8%AA%D9%8A+%D8%A7%D9%84%D9%8A%D9%80%D9%80%D9%80%D9%88%D9%85%D9%8A%D9%80%EF%AE%A9%E2%80%AD/data=!4m7!3m6!1s0x15b91b8d2d33f30d:0x7362268c1b653833!8m2!3d24.0093064!4d38.1796042!16s%2Fg%2F11tj2k9568!19sChIJDfMzLY0buRURMzhlG4wmYnM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D8%A8%D8%B1+%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D8%B3%D9%84%D8%B7%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15b9077bd8f800d1:0xea7b68badd032950!8m2!3d24.0942545!4d38.0549208!16s%2Fg%2F11pdm5b0c4!19sChIJ0QD42HsHuRURUCkD3bpoe-o?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%A8%D8%B1%D8%A7%D9%87%D9%8A%D9%85+%D9%85%D8%AD%D9%85%D8%AF+%D8%AE%D8%B7%D9%8A%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15b9060d9c6e56a3:0x2b14ca21e1668edd!8m2!3d24.0868757!4d38.0578692!16s%2Fg%2F11f3vfj43_!19sChIJo1ZunA0GuRUR3Y5m4SHKFCs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D8%B1%D9%81%D8%A7%D8%B9%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b90572233f08df:0x158c9ffd4dda89a7!8m2!3d24.0698243!4d38.1144593!16s%2Fg%2F11f0l3zrwm!19sChIJ3wg_I3IFuRURp4naTf2fjBU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/New+Jeddah+Store+Bakala/data=!4m7!3m6!1s0x15b9059fc1c085cf:0x568e1819ecf9d944!8m2!3d24.0755207!4d38.0926029!16s%2Fg%2F11vwl9_th8!19sChIJz4XAwZ8FuRURRNn57BkYjlY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D8%A8%D8%B1%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D8%A7%D9%84%D9%81%D8%A7%D8%B1%D8%B3%E2%80%AD/data=!4m7!3m6!1s0x15b90598a36f0fe1:0x4acef596d0f2754f!8m2!3d24.068388!4d38.1045528!16s%2Fg%2F11g4hjmg3w!19sChIJ4Q9vo5gFuRURT3Xy0Jb1zko?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B2%D8%A7%D8%AF+%D8%A7%D9%84%D8%A8%D9%84%D8%AF+%D8%A7%D9%84%D8%AC%D8%AF%D9%8A%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15b9070075ab63cf:0x1a77fd662b959c2f!8m2!3d24.098213!4d38.0354397!16s%2Fg%2F11vyzg81lc!19sChIJz2OrdQAHuRURL5yVK2b9dxo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D9%86%D9%85%D8%A7+%D8%A7%D9%84%D9%82%D8%A7%D9%81%D9%84%D8%A9+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b908a0ae008a6f:0x500820dac535f8fc!8m2!3d24.1058292!4d38.0468995!16s%2Fg%2F11f0l3zj_8!19sChIJb4oArqAIuRUR_Pg1xdogCFA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D8%B3%D9%88%D8%A7%D9%82+%D8%AF%D8%B1%D8%A8+%D8%A7%D9%84%D9%8A%D9%88%D9%85%E2%80%AD/data=!4m7!3m6!1s0x15b90f9b7d1f31d3:0xc9152ff7ab48346c!8m2!3d24.1175186!4d38.1114396!16s%2Fg%2F11j2p1nk6f!19sChIJ0zEffZsPuRURbDRIq_cvFck?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%B4%D8%B1%D9%82%E2%80%AD/data=!4m7!3m6!1s0x15b90589ed0eb9cb:0x3a89c2d95f444389!8m2!3d24.0923492!4d38.0908485!16s%2Fg%2F113gz7gpl!19sChIJy7kO7YkFuRURiUNEX9nCiTo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%B1%D8%A7%D8%B4%D8%AF+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b90fe2855d2a3b:0x79b31e9b21a0b1bd!8m2!3d24.1224993!4d38.0672305!16s%2Fg%2F11fcq1c254!19sChIJOypdheIPuRURvbGgIZses3k?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D8%B3%D9%88%D8%A7%D9%82+%D8%A7%D9%84%D8%AF%D9%8A%D8%B1%D8%A9+%D8%A7%D9%84%D8%B3%D9%85%D9%8A%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b91a343736e623:0x593ffedc8ef150e0!8m2!3d24.0201103!4d38.2143599!16s%2Fg%2F1hm34l170!19sChIJI-Y2NzQauRUR4FDxjtz-P1k?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%B3%D9%85%D8%A7+%D8%A7%D9%84%D9%85%D8%B4%D9%87%D8%AF%E2%80%AD/data=!4m7!3m6!1s0x15b909001cd2909d:0xc3c2b5adcf62bf3!8m2!3d24.1127345!4d38.0471439!16s%2Fg%2F11vst7ycwc!19sChIJnZDSHAAJuRUR8yv23ForPAw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%A8%D8%B2+%D9%88%D8%B3%D9%88%D8%A8%D8%B1+%D9%85%D8%A7%D9%83%D8%AA+%D8%A7%D9%84%D8%A7%D8%AD%D9%85%D8%AF%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b906006e77cc69:0x34949e52a2f76296!8m2!3d24.0989759!4d38.0623574!16s%2Fg%2F11c3srzglq!19sChIJacx3bgAGuRURlmL3olKelDQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D8%B3%D9%88%D8%A7%D9%82+%D8%A7%D9%84%D8%B0%D9%87%D8%A8%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b9095a938813ed:0xbbae12b61bffa779!8m2!3d24.1219655!4d38.0583426!16s%2Fg%2F11ts2kj262!19sChIJ7ROIk1oJuRUReaf_G7YSrrs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D8%A8%D8%B1+%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D8%B9%D8%B2%D9%88%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x15b9087e5cc396e9:0x7861b8ffc2762ee!8m2!3d24.1255587!4d38.0107104!16s%2Fg%2F11dx9g0dpm!19sChIJ6ZbDXH4IuRUR7mIn_I8bhgc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D8%B1%D8%AD%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15b905800af9a86b:0xf86156f99f69d0e4!8m2!3d24.0742936!4d38.1054438!16s%2Fg%2F11k3kmyt1h!19sChIJa6j5CoAFuRUR5NBpn_lWYfg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%85%D9%89+%D9%8A%D9%86%D8%A8%D8%B9+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b91b773b4d31cb:0xf12d041073ee3c4!8m2!3d24.030153!4d38.2179823!16s%2Fg%2F11j0q71h9t!19sChIJyzFNO3cbuRURxOM-B0HQEg8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%AE%D8%A8%D8%B2+%D9%88%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%AF%D8%A7%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%B9%D8%B2%E2%80%AD/data=!4m7!3m6!1s0x15b90976c818833d:0xa5cef9c4b33461c0!8m2!3d24.1305867!4d38.006377!16s%2Fg%2F11tcs75khb!19sChIJPYMYyHYJuRURwGE0s8T5zqU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D8%A7%D8%A7%D8%B9%D8%A7%D9%84%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15b90700117c484b:0xa739825e342c28c8!8m2!3d24.0895265!4d38.0618346!16s%2Fg%2F11w3zv7qjn!19sChIJS0h8EQAHuRURyCgsNF6COac?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B4%D8%B1%D9%83%D8%A9+%D8%A3%D8%B5%D8%AF%D8%A7%D9%81+%D8%A7%D9%84%D8%AD%D9%88%D8%B1%D8%A7%D8%A1+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b90f88b3585a45:0x242bc52dc9e336ea!8m2!3d24.1222407!4d38.069255!16s%2Fg%2F11vy89jwkd!19sChIJRVpYs4gPuRUR6jbjyS3FKyQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D8%B9%D8%A7%D8%AF%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b90f112775a6fd:0x76fdf6313ca96b2b!8m2!3d24.1184969!4d38.1207729!16s%2Fg%2F11p65ng017!19sChIJ_aZ1JxEPuRURK2upPDH2_XY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%A4%D8%B3%D8%B3%D8%A9+%D9%85%D9%86%D8%A7%D8%B1%D8%A9+%D8%A7%D9%84%D8%A7%D8%B1%D8%A8%D8%B9%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15b9075a6a34e741:0x436c1ec211b7709f!8m2!3d24.0913377!4d38.0508174!16s%2Fg%2F11fmqb0tt2!19sChIJQec0aloHuRURn3C3EcIebEM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%B4%D8%A7%D8%B7%D8%A6+%D8%A7%D9%84%D9%81%D8%A7%D9%83%D9%87%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b9070e02ec863d:0x6f789f38ad85b4a2!8m2!3d24.1055011!4d38.0176022!16s%2Fg%2F11y1kfq9v3!19sChIJPYbsAg4HuRURorSFrTifeG8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Olive+express+yanbu/data=!4m7!3m6!1s0x15b907eb7833e64b:0x1ec0c77c3d5df17d!8m2!3d24.0854812!4d38.0564428!16s%2Fg%2F11t1j8w2kq!19sChIJS-YzeOsHuRURffFdPXzHwB4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B1%D8%AD%D9%84%D8%AA%D9%8A+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b907c0275a65f7:0xba788ba8bc0792e6!8m2!3d24.0969741!4d38.0515899!16s%2Fg%2F11h6w3c421!19sChIJ92VaJ8AHuRUR5pIHvKiLeLo?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/farhana+supermarket+yanbu/data=!4m7!3m6!1s0x15b90727f993e7df:0xc2aad5f7d4d936bf!8m2!3d24.0895265!4d38.0618346!16s%2Fg%2F11y3ky4x55!19sChIJ3-eT-ScHuRURvzbZ1PfVqsI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%B2%D9%85%D9%86+%D8%A7%D9%84%D8%B1%D8%A7%D8%A6%D8%B9+%D9%84%D9%84%D8%A8%D8%B6%D8%A7%D8%A6%D8%B9+%D8%A7%D9%84%D9%85%D8%AE%D9%81%D8%B6%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15b91b949f655761:0x9d9260901d9555c9!8m2!3d24.02007!4d38.2147139!16s%2Fg%2F11t2v5fh1d!19sChIJYVdln5QbuRURyVWVHZBgkp0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D9%8A%D9%86%D8%AC%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15b90760c2029aa3:0x54e53d038c755dd9!8m2!3d24.077542!4d38.0536184!16s%2Fg%2F11vkk1ccl8!19sChIJo5oCwmAHuRUR2V11jAM95VQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D8%B3%D9%88%D8%A7%D9%82+%D8%A7%D9%84%D9%85%D8%B2%D8%B1%D8%B9%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b91bb366f80481:0xcd6365ad8aa6b07!8m2!3d24.0375331!4d38.1778229!16s%2Fg%2F11s6b8ggzr!19sChIJgQT4ZrMbuRURB2uq2Fo21gw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D8%A8%D8%B1%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D8%A7%D9%84%D8%AC%D9%86%D9%88%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15b9056dc6b30ded:0x6bfd5305839b6efa!8m2!3d24.068448!4d38.117681!16s%2Fg%2F11g7_cyr8_!19sChIJ7Q2zxm0FuRUR-m6bgwVT_Ws?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A3%D8%B3%D9%88%D8%A7%D9%82+%D9%88+%D9%85%D8%AE%D8%A7%D8%A8%D8%B2+%D9%85%D9%84%D8%AA%D9%82%D9%89+%D8%A7%D9%84%D8%AA%D9%88%D9%81%D9%8A%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15b905ba427c137d:0x348678fb7d7388bf!8m2!3d24.0844846!4d38.0963811!16s%2Fg%2F11j4d2rjwk!19sChIJfRN8QroFuRURv4hzfft4hjQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D9%88%D8%A7%D9%82+%D9%86%D9%85%D8%A7+%D8%A7%D9%84%D8%AA%D9%88%D9%81%D9%8A%D9%82%E2%80%AD/data=!4m7!3m6!1s0x15b9059bb467a4fb:0x217efd181e39c256!8m2!3d24.0769221!4d38.0973724!16s%2Fg%2F11fyzcygfh!19sChIJ-6RntJsFuRURVsI5Hhj9fiE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AB%D9%84%D8%A7%D8%AC%D8%A9+%D8%A7%D9%84%D8%B9%D8%B1%D9%88%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b905f273e0af0d:0x193f936c81b7de81!8m2!3d24.0857411!4d38.0808479!16s%2Fg%2F11c56rcmdq!19sChIJDa_gc_IFuRURgd63gWyTPxk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%AC%D9%88%D9%87%D8%B1%D8%A9+%D8%A7%D9%84%D8%A7%D8%B1%D8%A8%D8%B9%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15b9079aef69028d:0x5d87bdfe3416429d!8m2!3d24.0932219!4d38.0560038!16s%2Fg%2F11v59yy0ps!19sChIJjQJp75oHuRURnUIWNP69h10?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/Salma+Super+shop/data=!4m7!3m6!1s0x15b9051fff2e2b2f:0x831eb03e6c30f478!8m2!3d24.06823!4d38.1048204!16s%2Fg%2F11v9klcchj!19sChIJLysu_x8FuRURePQwbD6wHoM?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D9%88%D9%81%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15b9074c5da379e9:0x44c4b8c4d22d8331!8m2!3d24.08627!4d38.0593587!16s%2Fg%2F11lczzplwq!19sChIJ6XmjXUwHuRURMYMt0sS4xEQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/GADHEER+supermarket/data=!4m7!3m6!1s0x15b9058f6a4e4155:0x55031575422d12fe!8m2!3d24.0850882!4d38.0937643!16s%2Fg%2F11f_2ly9jt!19sChIJVUFOao8FuRUR_hItQnUVA1U?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15b909742541b9f3:0x1e0e669a1489c727!8m2!3d24.1072403!4d38.0580758!16s%2Fg%2F11ry30kgds!19sChIJ87lBJXQJuRURJ8eJFJpmDh4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D9%84%D9%81%D8%A7%D9%8A%D8%AF%D9%8A+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D8%A9+%D8%A8%D8%A7%D9%84%D8%AC%D9%85%D9%84%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b9097fef99d203:0xb52cdc0070fa883f!8m2!3d24.1115131!4d38.0428112!16s%2Fg%2F11krh41jw0!19sChIJA9KZ738JuRURP4j6cADcLLU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D8%A8%D8%B1+%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D8%A7%D9%84%D8%B1%D9%8A%D8%A7%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15b9086fa1c8d5a3:0xc81d4db0f6f623a6!8m2!3d24.1286366!4d38.0088007!16s%2Fg%2F11fx8_8b6f!19sChIJo9XIoW8IuRURpiP29rBNHcg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%86%D8%B3%D9%85%D8%A9+%D8%B3%D9%88%D8%A8%D8%B1+%D9%85%D8%A7%D8%B1%D9%83%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15b91bd207ee6613:0x425a80c15009490f!8m2!3d24.0094661!4d38.2217038!16s%2Fg%2F11bwyxdqn9!19sChIJE2buB9IbuRURD0kJUMGAWkI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D8%A8%D8%B1+%D9%85%D8%A7%D8%B1%D9%83%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15b909a6279fb833:0xa1ea842047a9ea04!8m2!3d24.135197!4d38.0489244!16s%2Fg%2F11hyd5ctpj!19sChIJM7ifJ6YJuRURBOqpRyCE6qE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D9%84%D8%A7%D9%81%D9%8A+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D9%84%D9%87+%D8%A7%D9%84%D8%AC%D9%87%D9%86%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b90522c1b51ad3:0xdd0c11ce5397b7d4!8m2!3d24.0674812!4d38.1038297!16s%2Fg%2F11hzcrrpcb!19sChIJ0xq1wSIFuRUR1LeXU84RDN0?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D8%A8%D8%B1%D8%AC+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15b908a78a41fb0d:0x9f4af9321afb8dbb!8m2!3d24.1040358!4d38.0509356!16s%2Fg%2F11c1sjk91c!19sChIJDftBiqcIuRURu437GjL5Sp8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%B3%D9%88%D8%A8%D8%B1+%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D8%A7%D9%84%D8%B4%D9%85%D9%8A%D8%B3%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b90984b473751f:0x591ef891c4b5b67b!8m2!3d24.1225753!4d38.0614039!16s%2Fg%2F11h51kgmb9!19sChIJH3VztIQJuRURe7a1xJH4Hlk?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D8%B1%D9%83%D8%B2+%D8%A7%D9%84%D8%AC%D8%B3%D8%B1+%D8%A7%D9%84%D8%AA%D8%AC%D8%A7%D8%B1%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15b90f54b39a9637:0x7b6811be9dc440bc!8m2!3d24.1045303!4d38.0633488!16s%2Fg%2F11g6x8309k!19sChIJN5aas1QPuRURvEDEnb4RaHs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%B9%D8%B1%D9%8A%D9%86%E2%80%AD/data=!4m7!3m6!1s0x15e3552b2f1b9235:0x23b0aa41c6e630e!8m2!3d18.2394578!4d42.5315363!16s%2Fg%2F11f7ppsdwn!19sChIJNZIbLytV4xURDmNuHKQKOwI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D9%88%D8%B3%D8%A7%D9%85+%D8%A7%D9%84%D8%AC%D9%86%D9%88%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15fb55baff9d2637:0x6ecf1a7aeeafb845!8m2!3d18.2465202!4d42.5117133!16s%2Fg%2F11cs32dtm4!19sChIJNyad_7pV-xURRbiv7noaz24?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%A3%D8%B3%D8%A7%D9%85%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15e3543f82f1c001:0xd646c679f67cb055!8m2!3d18.2352213!4d42.4917146!16s%2Fg%2F11fzyzhw09!19sChIJAcDxgj9U4xURVbB89nnGRtY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%B0%D8%B1%D8%A9+%D8%A7%D9%84%D8%B4%D9%85%D8%A7%D9%84%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e3538796a03405:0xd7304c55b2f62e9d!8m2!3d18.2098105!4d42.5034521!16s%2Fg%2F11gcds53gz!19sChIJBTSglodT4xURnS72slVMMNc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%AF%D8%B1%D8%B1%E2%80%AD/data=!4m7!3m6!1s0x15fcab4ed9ba768f:0x9e65732936706f14!8m2!3d18.2095223!4d42.5581085!16s%2Fg%2F11c6ljb2zp!19sChIJj3a62U6r_BURFG9wNilzZZ4?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%84%D8%B0%D8%A7%D8%A6%D8%B0+%D9%82%D9%88%D8%AA%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e3543997dbbd83:0xfb71fc5b6a1917d2!8m2!3d18.241839!4d42.4884059!16s%2Fg%2F11f1241vv1!19sChIJg73blzlU4xUR0hcZalv8cfs?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A7%D8%B3%D9%88%D8%A7%D9%82+%D8%A8%D9%86+%D9%84%D8%A7%D8%AD%D9%82%E2%80%AD/data=!4m7!3m6!1s0x15e3540be296c069:0xc159c4a406232c10!8m2!3d18.2191949!4d42.4875268!16s%2Fg%2F11c0r5b4k4!19sChIJacCW4gtU4xURECwjBqTEWcE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%A8%D8%B1%D9%83%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fcaa38ac91c6df:0xf880abcdebe6f1be!8m2!3d18.2336941!4d42.6100998!16s%2Fg%2F11fzf1p6qn!19sChIJ38aRrDiq_BURvvHm682rgPg?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D8%AD%D9%8A%D8%A7%D8%A9+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AB%D8%A9+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15fca909433405bd:0x2ca48be8afcc830f!8m2!3d18.1928266!4d42.5322243!16s%2Fg%2F11shmv7llb!19sChIJvQU0Qwmp_BURD4PMr-iLpCw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%AF%D8%B1%D8%A9+%D8%A7%D8%A8%D9%87%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15fcaa451a04952f:0x526e8888a0f1ec69!8m2!3d18.233222!4d42.6015509!16s%2Fg%2F11cs24kh0g!19sChIJL5UEGkWq_BURaezxoIiIblI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+99%E2%80%AD/data=!4m7!3m6!1s0x15e3537e5022c5ab:0xd4dce4f0a6add477!8m2!3d18.2061444!4d42.5147484!16s%2Fg%2F11dx9hk3gt!19sChIJq8UiUH5T4xURd9StpvDk3NQ?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D8%AC%D9%86%D9%88%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x15e354bcc4730247:0x22060ecd0e28287f!8m2!3d18.21263!4d42.5346328!16s%2Fg%2F11f_knjz_4!19sChIJRwJzxLxU4xURfygoDs0OBiI?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x15e353ae7c12e3a1:0xb5b6831bd2e4f2b6!8m2!3d18.2077909!4d42.4912336!16s%2Fg%2F11h7b_s07m!19sChIJoeMSfK5T4xURtvLk0huDtrU?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%AF%D8%A7%D9%84+%D8%A7%D9%84%D8%AD%D8%AF%D9%8A%D8%AB+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D9%87%E2%80%AD/data=!4m7!3m6!1s0x15e3543fe288e20d:0xd7d7b5a0efa60f2a!8m2!3d18.2330099!4d42.4913257!16s%2Fg%2F11gfhs7gmc!19sChIJDeKI4j9U4xURKg-m76C119c?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D9%86%D8%A7%D9%8A%D9%81%E2%80%AD/data=!4m7!3m6!1s0x15fca99e93db25d9:0xff6f62dac06a4a11!8m2!3d18.2388383!4d42.6350637!16s%2Fg%2F11ght08dbh!19sChIJ2SXbk56p_BUREUpqwNpib_8?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%86%D9%8A+%D9%85%D8%A7%D8%B1%D9%83%D8%AA+%D8%B1%D9%88%D8%A7%D8%B3%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x15e3548eec4e98f3:0x370b08affc7c927a!8m2!3d18.2195777!4d42.5182166!16s%2Fg%2F11f0374h_j!19sChIJ85hO7I5U4xURepJ8_K8ICzc?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%B5%D9%81%D8%A7%E2%80%AD/data=!4m7!3m6!1s0x15e35479eec4b831:0xfadc1e79f0f49b0b!8m2!3d18.2148759!4d42.5027178!16s%2Fg%2F11f_j3vv7t!19sChIJMbjE7nlU4xURC5v08Hke3Po?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D8%B4%D8%A7%D8%B1%D9%82%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e353888c9d6e87:0x31f1930748da1988!8m2!3d18.2087979!4d42.5007076!16s%2Fg%2F11f_j5dtpn!19sChIJh26djIhT4xURiBnaSAeT8TE?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D9%84%D8%B3%D9%8A%D8%AF+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e35388435d8185:0x90f1dfb34ac62638!8m2!3d18.2099063!4d42.5003904!16s%2Fg%2F11f2b6wyql!19sChIJhYFdQ4hT4xUROCbGSrPf8ZA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D9%85%D9%83%D8%A7%D9%86+%D8%A7%D9%84%D8%AA%D8%B3%D9%88%D9%82+%D9%84%D9%84%D9%85%D9%88%D8%A7%D8%AF+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A6%D9%8A%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x15e355e8d6cd3fb5:0xcc2e1551c8bef2d2!8m2!3d18.2287181!4d42.4868294!16s%2Fg%2F11swppv82n!19sChIJtT_N1uhV4xUR0vK-yFEVLsw?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%AA%D9%85%D9%88%D9%8A%D9%86%D8%A7%D8%AA+%D8%A7%D8%B7%D9%8A%D8%A8+%D8%A7%D9%84%D8%BA%D8%B0%D8%A7%D8%A1%E2%80%AD/data=!4m7!3m6!1s0x15e3555fc43ed87b:0x50494023a240218b!8m2!3d18.234568!4d42.4906832!16s%2Fg%2F11svmgw0s4!19sChIJe9g-xF9V4xURiyFAoiNASVA?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>https://www.google.com/maps/place/%D8%A8%D9%82%D8%A7%D9%84%D8%A9+%D8%A7%D9%84%D9%85%D9%86%D8%B3%D9%83%E2%80%AD/data=!4m7!3m6!1s0x15e3550f213bdf05:0x8636cd3c017cdffc!8m2!3d18.217947!4d42.547276!16s%2Fg%2F11glt6dy2x!19sChIJBd87IQ9V4xUR_N98ATzNNoY?authuser=0&amp;hl=ar&amp;rclk=1</t>
-  </si>
-  <si>
-    <t>الرائد سوبر ماركت</t>
+    <t>https://www.go...</t>
+  </si>
+  <si>
+    <t>الرائد سوبر ما...</t>
   </si>
   <si>
     <t>تموينات ريما</t>
   </si>
   <si>
-    <t>ALSAFI SUPERMARKET</t>
+    <t>ALSAFI SUPERMA...</t>
   </si>
   <si>
     <t>بقالة البندر</t>
@@ -352,7 +58,7 @@
     <t>الراية</t>
   </si>
   <si>
-    <t>أسواق الديرة بينبع الصناعية - حي الصبح - مركز أحمد الشغدلي التجاري</t>
+    <t>أسواق الديرة ب...</t>
   </si>
   <si>
     <t>بنده</t>
@@ -361,148 +67,145 @@
     <t>التاج الدمشقي</t>
   </si>
   <si>
-    <t>بقالة صفوة الاندلس للمواد الغذائية</t>
+    <t>بقالة صفوة الا...</t>
   </si>
   <si>
     <t>سلتي اليومية</t>
   </si>
   <si>
-    <t>تموينات اشراقة ينبع للمواد الغذائية</t>
-  </si>
-  <si>
-    <t>سوبرماركت السلام</t>
-  </si>
-  <si>
-    <t>تموينات السفير</t>
-  </si>
-  <si>
-    <t>تموينات ومخبز فرحانه</t>
-  </si>
-  <si>
-    <t>تموينات نما المروج</t>
-  </si>
-  <si>
-    <t>مركز الحميري للتسويق</t>
-  </si>
-  <si>
-    <t>تموينات خيرات المدينه</t>
+    <t>تموينات اشراقة...</t>
+  </si>
+  <si>
+    <t>سوبرماركت السل...</t>
+  </si>
+  <si>
+    <t>تموينات السفير...</t>
+  </si>
+  <si>
+    <t>تموينات ومخبز ...</t>
+  </si>
+  <si>
+    <t>تموينات نما ال...</t>
+  </si>
+  <si>
+    <t>مركز الحميري ل...</t>
+  </si>
+  <si>
+    <t>تموينات خيرات ...</t>
   </si>
   <si>
     <t>تموينات فرح</t>
   </si>
   <si>
-    <t>تموينات اجمل عربة</t>
-  </si>
-  <si>
-    <t>سوبر ماركت سلة الخيرات</t>
-  </si>
-  <si>
-    <t>ون زون ون ستوب - One zone one stop</t>
+    <t>تموينات اجمل ع...</t>
+  </si>
+  <si>
+    <t>سوبر ماركت سلة...</t>
+  </si>
+  <si>
+    <t>ون زون ون ستوب...</t>
   </si>
   <si>
     <t>سبيدو ماركت</t>
   </si>
   <si>
-    <t>سوبر ماركت متاجر ينبع</t>
-  </si>
-  <si>
-    <t>سوبر ماركت التحليه</t>
-  </si>
-  <si>
-    <t>مخبز وسبر ماركت البحر الاحمر</t>
-  </si>
-  <si>
-    <t>تموينات اول غذاء - first food market</t>
-  </si>
-  <si>
-    <t>مركز تسويق كارفود</t>
-  </si>
-  <si>
-    <t>اسواق العربيه للمواد الغذائيه</t>
-  </si>
-  <si>
-    <t>سـلتي اليـــوميـﮩ</t>
-  </si>
-  <si>
-    <t>سوبر ماركت سلطان</t>
-  </si>
-  <si>
-    <t>ابراهيم محمد خطيب</t>
+    <t>سوبر ماركت متا...</t>
+  </si>
+  <si>
+    <t>سوبر ماركت الت...</t>
+  </si>
+  <si>
+    <t>مخبز وسبر مارك...</t>
+  </si>
+  <si>
+    <t>تموينات اول غذ...</t>
+  </si>
+  <si>
+    <t>مركز تسويق كار...</t>
+  </si>
+  <si>
+    <t>اسواق العربيه ...</t>
+  </si>
+  <si>
+    <t>سـلتي اليـــوم...</t>
+  </si>
+  <si>
+    <t>سوبر ماركت سلط...</t>
+  </si>
+  <si>
+    <t>ابراهيم محمد خ...</t>
   </si>
   <si>
     <t>الرفاعي</t>
   </si>
   <si>
-    <t>New Jeddah Store Bakala</t>
-  </si>
-  <si>
-    <t>سوبرماركت الفارس</t>
-  </si>
-  <si>
-    <t>زاد البلد الجديد</t>
-  </si>
-  <si>
-    <t>تموينات نما القافلة للمواد الغذائية</t>
-  </si>
-  <si>
-    <t>أسواق درب اليوم</t>
+    <t>New Jeddah Sto...</t>
+  </si>
+  <si>
+    <t>سوبرماركت الفا...</t>
+  </si>
+  <si>
+    <t>زاد البلد الجد...</t>
+  </si>
+  <si>
+    <t>أسواق درب اليو...</t>
   </si>
   <si>
     <t>تموينات الشرق</t>
   </si>
   <si>
-    <t>مركز الراشد التجاري</t>
-  </si>
-  <si>
-    <t>أسواق الديرة السميري</t>
-  </si>
-  <si>
-    <t>تموينات سما المشهد</t>
-  </si>
-  <si>
-    <t>مخبز وسوبر ماكت الاحمدي</t>
+    <t>مركز الراشد ال...</t>
+  </si>
+  <si>
+    <t>أسواق الديرة ا...</t>
+  </si>
+  <si>
+    <t>تموينات سما ال...</t>
+  </si>
+  <si>
+    <t>مخبز وسوبر ماك...</t>
   </si>
   <si>
     <t>أسواق الذهبية</t>
   </si>
   <si>
-    <t>سوبر ماركت عزوز</t>
+    <t>سوبر ماركت عزو...</t>
   </si>
   <si>
     <t>بقالة الرحاب</t>
   </si>
   <si>
-    <t>سمى ينبع للمواد الغذائية</t>
-  </si>
-  <si>
-    <t>مخبز وتموينات دانات العز</t>
+    <t>سمى ينبع للموا...</t>
+  </si>
+  <si>
+    <t>مخبز وتموينات ...</t>
   </si>
   <si>
     <t>تااعالت</t>
   </si>
   <si>
-    <t>شركة أصداف الحوراء التجارية</t>
-  </si>
-  <si>
-    <t>تموينات السعادة</t>
-  </si>
-  <si>
-    <t>مؤسسة منارة الاربعين</t>
-  </si>
-  <si>
-    <t>تموينات شاطئ الفاكهة</t>
-  </si>
-  <si>
-    <t>Olive express yanbu</t>
-  </si>
-  <si>
-    <t>رحلتي للمواد الغذائية</t>
-  </si>
-  <si>
-    <t>farhana supermarket yanbu</t>
-  </si>
-  <si>
-    <t>تموينات الزمن الرائع للبضائع المخفضه</t>
+    <t>شركة أصداف الح...</t>
+  </si>
+  <si>
+    <t>تموينات السعاد...</t>
+  </si>
+  <si>
+    <t>مؤسسة منارة ال...</t>
+  </si>
+  <si>
+    <t>تموينات شاطئ ا...</t>
+  </si>
+  <si>
+    <t>Olive express ...</t>
+  </si>
+  <si>
+    <t>رحلتي للمواد ا...</t>
+  </si>
+  <si>
+    <t>farhana superm...</t>
+  </si>
+  <si>
+    <t>تموينات الزمن ...</t>
   </si>
   <si>
     <t>نينجا</t>
@@ -511,67 +214,67 @@
     <t>أسواق المزرعة</t>
   </si>
   <si>
-    <t>سوبرماركت الجنوب</t>
-  </si>
-  <si>
-    <t>أسواق و مخابز ملتقى التوفير</t>
-  </si>
-  <si>
-    <t>اسواق نما التوفيق</t>
+    <t>سوبرماركت الجن...</t>
+  </si>
+  <si>
+    <t>أسواق و مخابز ...</t>
+  </si>
+  <si>
+    <t>اسواق نما التو...</t>
   </si>
   <si>
     <t>ثلاجة العروي</t>
   </si>
   <si>
-    <t>تموينات جوهرة الاربعين</t>
-  </si>
-  <si>
-    <t>Salma Super shop</t>
+    <t>تموينات جوهرة ...</t>
+  </si>
+  <si>
+    <t>Salma Super sh...</t>
   </si>
   <si>
     <t>تموينات وفاء</t>
   </si>
   <si>
-    <t>GADHEER supermarket</t>
+    <t>GADHEER superm...</t>
   </si>
   <si>
     <t>تموينات</t>
   </si>
   <si>
-    <t>الفايدي للمواد الغذائية بالجملة</t>
-  </si>
-  <si>
-    <t>سوبر ماركت الريان</t>
-  </si>
-  <si>
-    <t>نسمة سوبر ماركت</t>
+    <t>الفايدي للمواد...</t>
+  </si>
+  <si>
+    <t>سوبر ماركت الر...</t>
+  </si>
+  <si>
+    <t>نسمة سوبر مارك...</t>
   </si>
   <si>
     <t>سوبر ماركت</t>
   </si>
   <si>
-    <t>تموينات لافي عبدالله الجهني</t>
-  </si>
-  <si>
-    <t>بقالة البرج للمواد الغذائية</t>
-  </si>
-  <si>
-    <t>سوبر ماركت الشميسي</t>
-  </si>
-  <si>
-    <t>مركز الجسر التجاري</t>
-  </si>
-  <si>
-    <t>تموينات العرين</t>
-  </si>
-  <si>
-    <t>بقالة وسام الجنوب</t>
+    <t>تموينات لافي ع...</t>
+  </si>
+  <si>
+    <t>بقالة البرج لل...</t>
+  </si>
+  <si>
+    <t>سوبر ماركت الش...</t>
+  </si>
+  <si>
+    <t>مركز الجسر الت...</t>
+  </si>
+  <si>
+    <t>تموينات العرين...</t>
+  </si>
+  <si>
+    <t>بقالة وسام الج...</t>
   </si>
   <si>
     <t>بقالة أسامه</t>
   </si>
   <si>
-    <t>بقالة ذرة الشمالية</t>
+    <t>بقالة ذرة الشم...</t>
   </si>
   <si>
     <t>بقالة درر</t>
@@ -583,13 +286,13 @@
     <t>اسواق بن لاحق</t>
   </si>
   <si>
-    <t>تموينات البركة</t>
-  </si>
-  <si>
-    <t>بقالة الحياة الحديثة للمواد الغذائية</t>
-  </si>
-  <si>
-    <t>تموينات درة ابها</t>
+    <t>تموينات البركة...</t>
+  </si>
+  <si>
+    <t>بقالة الحياة ا...</t>
+  </si>
+  <si>
+    <t>تموينات درة اب...</t>
   </si>
   <si>
     <t>بقالة 99</t>
@@ -598,13 +301,13 @@
     <t>بقالة الجنوب</t>
   </si>
   <si>
-    <t>تموينات الدال الحديث للمواد الغذائيه</t>
+    <t>تموينات الدال ...</t>
   </si>
   <si>
     <t>تموينات نايف</t>
   </si>
   <si>
-    <t>مني ماركت رواسي</t>
+    <t>مني ماركت رواس...</t>
   </si>
   <si>
     <t>بقالة صفا</t>
@@ -613,13 +316,13 @@
     <t>بقالة الشارقة</t>
   </si>
   <si>
-    <t>تموينات السيد للمواد الغذائية</t>
-  </si>
-  <si>
-    <t>مكان التسوق للمواد الغذائية</t>
-  </si>
-  <si>
-    <t>تموينات اطيب الغذاء</t>
+    <t>تموينات السيد ...</t>
+  </si>
+  <si>
+    <t>مكان التسوق لل...</t>
+  </si>
+  <si>
+    <t>تموينات اطيب ا...</t>
   </si>
   <si>
     <t>بقالة المنسك</t>
@@ -631,16 +334,16 @@
     <t>سوبرماركت</t>
   </si>
   <si>
-    <t>متجر بقالة راقٍ</t>
+    <t>متجر بقالة راق...</t>
   </si>
   <si>
     <t>سوپر مارکت</t>
   </si>
   <si>
-    <t>سوق المواد الغذائية الطازجة</t>
-  </si>
-  <si>
-    <t>متجر مواد غذائية بالجملة</t>
+    <t>سوق المواد الغ...</t>
+  </si>
+  <si>
+    <t>متجر مواد غذائ...</t>
   </si>
   <si>
     <t>4.0</t>
@@ -916,298 +619,292 @@
     <t>21</t>
   </si>
   <si>
-    <t>32RH+CJR، البندر، ينبع 46421، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5488، ينبع 46423 7468، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3630, 7432 طريق املج 3630, ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Unnamed Road، ينبع 46511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>التاخي، ينبع 46436، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الصبح، ينبع 46452، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الأمير مقرن بن عبدالعزيز، المروج، ينبع 46511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>YADC7563، 7563 طريق الملك خالد، 4497، حي النسيم،، ينبع 46429،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي قرطبة، ينبع 46429، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الهيئه الملكيه العيون 3، طريق عمر بن الخطاب، العيون، ينبع 52376، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>YADA2990، 2990 عمر بن عبدالعزيز، 7584، حي الامارة،، ينبع 46422،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك خالد، التاخي، ينبع 46429، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3987 طريق الملك عبدالله بن عبدالعزيز شمال, البندر، ينبع 46421، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4631، ينبع 46428 8138،، ينبع المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>YFAA4267، 4267 جنادة المري، 8135، حي المروج،، ينبع 46511،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7156 سبط النحوي، حي المروج، YFAD4715، 4715، ينبع 46511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7817 طريق الامير عبدالله بن عبدالعزيز - شمال، حي الفردوس، YADA5493، 5493، ينبع 46423، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>السيف، الفيصل، حي، ينبع المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك خالد، البندر، ينبع 46421، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>بجوار مركز لمسات، الصريف، شارع عمر بن عبدالعزيز حي، ينبع المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3400، ينبع 46421 8381،، ينبع المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>YADA4349، 4349 طريق الامير عبدالله بن عبدالعزيز - شمال، 8128 حي، البندر، ينبع 46421، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الواحة،، ينبع 46436، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>252M+5RF, 7076 عمار بن ياسر، الخالد، ينبع الصناعية،, ينبع 46451، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الشارع العام، ينبع النخل 46762، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>V9M5+MP5، الصناعية،، ينبع 46494، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>32JV+4Q7 حي، عمر بن عبدالعزيز، الصريف، ينبع 46422، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>8536 رضي الله عنه، حي المروج، ينبع 46511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4076 رضي الله عنه, حي الفردوس،, أبو بكر الصديق، 7145, ينبع 46423، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>YADF3843، 3843 طريق الملك عبدالعزيز، 6856، حي ينبع البلد،، ينبع 46424،، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الهيئة الملكيه, املج، العيون، ينبع 21356، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>السميري، ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7102، 3432، ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5015 طريق الملك عبدالعزيز Yanbu Al Bahr 46431 8472 طريق الملك عبدالعزي، 8472، الصواري، ينبع 46431، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>YAGA9127، البحيرة، ينبع 46431، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3493+9R3، المجد، ينبع 46431، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>32XP+75P، البندر، ينبع 46421، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>المشهد، ينبع 46423، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Yanbu Al Nakhal، ينبع 46414، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>33RR+W8Q، التاخي، ينبع 46429، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الأميرمقرن بن عبدالعزيز، مشرفة، ينبع 46428، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>26C7+2PX، الحزام، السميري، ينبع 46455، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>ابي بشر، المشهد، ينبع 46423، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>33X6+HWX، طريق الملك فهد، السميري، ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6682 الامير مقرن بن عبدالعزيز، حي الرابية، YADB5598، 5598، ينبع 46426، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>42G6+67G، عمر بن الخطاب، البهجة، ينبع 46511، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>34F4+P58، الواحة، ينبع 46436، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الصناعية، 3975 6497 ينبع SA، ينبع 46457، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>عمر بن الخطاب، البهجة، ينبع 46512، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>33Q6+RP8، الصهاريج، ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الأمير مقرن بن عبدالعزيز، مشرفة، ينبع 46428، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>449C+98R، الصفا، ينبع 46414، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7707 علي بن أبي طالب، 7707, 3172, ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3708، 7040، الزهور،، ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق أملج، ابو بكر الصديق، ينبع المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>murooj, ينبع 24222، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3949 الحزام، 7114، السميري،، ينبع 51000، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7064 طريق الملك عبد الله، البحيرة، YADB4890، 4890، ينبع 46422، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الأمير سعود بن ثنيان، المشيريف، ينبع 46435، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5347 طريق الملك عبدالعزيز، ينبع 46431 8318 طريق الملك عبدالعزي، 8318، الصواري، ينبع 46431، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>5029 6912, ينبع 46429، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>البحيرة، ينبع 46431، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7071، الشروق، ينبع 46429، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>علي بن أبي طالب، الصهاريج، ينبع 33215، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>Al bahr, الصواري، ينبع 46431، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق الملك عبدالعزي، الحدائق، ينبع 46424، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6978، 4765، Yanbu، 46429 المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حي العمودي بجوار كلية العلوم، ينبع المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3642 طريق أملج، حي الفردوس، YADC7851، 7851، ينبع 46423، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6349 الامير سلطان بن عبدالعزيز، الفلاح، ينبع 46517، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>حديقة الشروق, Anwaah، النواة، ينبع 46456، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>42PX+3HF، المشهد، ينبع 46426، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>3483+XGW، المجد، ينبع 46431، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>4457، المشهد، ينبع 46423، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6733 طريق الأميرمقرن بن عبدالعزيز، المشهد، 5896، ينبع 46426، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>2132 طريق الملك فهد، 7477 طريق الملك فهد،، ينبع 46428، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6GQJ+QJM، العرين، أبها 62524، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>العام، الشرفية، أبها 62542، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7881، 4630، القرى، أبها 62541، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6G53+W9G, شارع الحرج، حي, ذرة، أبها 62521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>أبها 62527، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>طريق المشهد، القرى، أبها 62541، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6104 طريق الملك عبدالعزيز، الخالدية، أبها 62541، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6JM6+F2H، قرى آل غليظ، أبها 62583، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>بجانب فندق الحياة إن، طريق الملك عبدالله، الربوة، أبها 62523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7340، أبها 62583، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6681، أبها 62521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6G7M+3V2، طريق محمد بن عبدالعزيز، حي النميص، المنسك، أبها 62523، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6941 طريق الملك عبدالعزيز، المفتاحة، أبها 62521 2401،، أبها 62521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7648، القرى، أبها 62541 4589،، أبها 62541، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6JQP+G2P، قرى آل غليظ، أبها 62586، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6G99+R7P, طريق الملك فهد،, الاندلس، أبها 62521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6G73+X34، سوق السحك، الخشع، أبها 62521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6G52+G78، طريق الإمام عبدالرحمن بن فيصل بن تركي، الشفاء، أبها 62521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6G52+X56، حي اليمانية، الطبجية، أبها 62521، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>6FHP+FPP، طريق سرد بن عبدالله الازدي، الوصايف، أبها 62541، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>الوصايف، أبها 62541، المملكة العربية السعودية</t>
-  </si>
-  <si>
-    <t>7648 المروج، أبها 62527 المملكة العربية السعودية</t>
+    <t>32RH+CJR، البن...</t>
+  </si>
+  <si>
+    <t>5488، ينبع 464...</t>
+  </si>
+  <si>
+    <t>3630, 7432 طري...</t>
+  </si>
+  <si>
+    <t>Unnamed Road، ...</t>
+  </si>
+  <si>
+    <t>التاخي، ينبع 4...</t>
+  </si>
+  <si>
+    <t>الصبح، ينبع 46...</t>
+  </si>
+  <si>
+    <t>الأمير مقرن بن...</t>
+  </si>
+  <si>
+    <t>YADC7563، 7563...</t>
+  </si>
+  <si>
+    <t>حي قرطبة، ينبع...</t>
+  </si>
+  <si>
+    <t>الهيئه الملكيه...</t>
+  </si>
+  <si>
+    <t>YADA2990، 2990...</t>
+  </si>
+  <si>
+    <t>طريق الملك خال...</t>
+  </si>
+  <si>
+    <t>3987 طريق المل...</t>
+  </si>
+  <si>
+    <t>4631، ينبع 464...</t>
+  </si>
+  <si>
+    <t>YFAA4267، 4267...</t>
+  </si>
+  <si>
+    <t>7156 سبط النحو...</t>
+  </si>
+  <si>
+    <t>7817 طريق الام...</t>
+  </si>
+  <si>
+    <t>السيف، الفيصل،...</t>
+  </si>
+  <si>
+    <t>بجوار مركز لمس...</t>
+  </si>
+  <si>
+    <t>3400، ينبع 464...</t>
+  </si>
+  <si>
+    <t>YADA4349، 4349...</t>
+  </si>
+  <si>
+    <t>الواحة،، ينبع ...</t>
+  </si>
+  <si>
+    <t>252M+5RF, 7076...</t>
+  </si>
+  <si>
+    <t>الشارع العام، ...</t>
+  </si>
+  <si>
+    <t>V9M5+MP5، الصن...</t>
+  </si>
+  <si>
+    <t>32JV+4Q7 حي، ع...</t>
+  </si>
+  <si>
+    <t>8536 رضي الله ...</t>
+  </si>
+  <si>
+    <t>4076 رضي الله ...</t>
+  </si>
+  <si>
+    <t>YADF3843، 3843...</t>
+  </si>
+  <si>
+    <t>الهيئة الملكيه...</t>
+  </si>
+  <si>
+    <t>السميري، ينبع ...</t>
+  </si>
+  <si>
+    <t>7102، 3432، ين...</t>
+  </si>
+  <si>
+    <t>5015 طريق المل...</t>
+  </si>
+  <si>
+    <t>YAGA9127، البح...</t>
+  </si>
+  <si>
+    <t>3493+9R3، المج...</t>
+  </si>
+  <si>
+    <t>32XP+75P، البن...</t>
+  </si>
+  <si>
+    <t>المشهد، ينبع 4...</t>
+  </si>
+  <si>
+    <t>Yanbu Al Nakha...</t>
+  </si>
+  <si>
+    <t>33RR+W8Q، التا...</t>
+  </si>
+  <si>
+    <t>طريق الأميرمقر...</t>
+  </si>
+  <si>
+    <t>26C7+2PX، الحز...</t>
+  </si>
+  <si>
+    <t>ابي بشر، المشه...</t>
+  </si>
+  <si>
+    <t>33X6+HWX، طريق...</t>
+  </si>
+  <si>
+    <t>6682 الامير مق...</t>
+  </si>
+  <si>
+    <t>42G6+67G، عمر ...</t>
+  </si>
+  <si>
+    <t>34F4+P58، الوا...</t>
+  </si>
+  <si>
+    <t>الصناعية، 3975...</t>
+  </si>
+  <si>
+    <t>عمر بن الخطاب،...</t>
+  </si>
+  <si>
+    <t>33Q6+RP8، الصه...</t>
+  </si>
+  <si>
+    <t>449C+98R، الصف...</t>
+  </si>
+  <si>
+    <t>7707 علي بن أب...</t>
+  </si>
+  <si>
+    <t>3708، 7040، ال...</t>
+  </si>
+  <si>
+    <t>طريق أملج، ابو...</t>
+  </si>
+  <si>
+    <t>murooj, ينبع 2...</t>
+  </si>
+  <si>
+    <t>3949 الحزام، 7...</t>
+  </si>
+  <si>
+    <t>7064 طريق المل...</t>
+  </si>
+  <si>
+    <t>الأمير سعود بن...</t>
+  </si>
+  <si>
+    <t>5347 طريق المل...</t>
+  </si>
+  <si>
+    <t>5029 6912, ينب...</t>
+  </si>
+  <si>
+    <t>البحيرة، ينبع ...</t>
+  </si>
+  <si>
+    <t>7071، الشروق، ...</t>
+  </si>
+  <si>
+    <t>علي بن أبي طال...</t>
+  </si>
+  <si>
+    <t>Al bahr, الصوا...</t>
+  </si>
+  <si>
+    <t>طريق الملك عبد...</t>
+  </si>
+  <si>
+    <t>6978، 4765، Ya...</t>
+  </si>
+  <si>
+    <t>حي العمودي بجو...</t>
+  </si>
+  <si>
+    <t>3642 طريق أملج...</t>
+  </si>
+  <si>
+    <t>6349 الامير سل...</t>
+  </si>
+  <si>
+    <t>حديقة الشروق, ...</t>
+  </si>
+  <si>
+    <t>42PX+3HF، المش...</t>
+  </si>
+  <si>
+    <t>3483+XGW، المج...</t>
+  </si>
+  <si>
+    <t>4457، المشهد، ...</t>
+  </si>
+  <si>
+    <t>6733 طريق الأم...</t>
+  </si>
+  <si>
+    <t>2132 طريق المل...</t>
+  </si>
+  <si>
+    <t>6GQJ+QJM، العر...</t>
+  </si>
+  <si>
+    <t>العام، الشرفية...</t>
+  </si>
+  <si>
+    <t>7881، 4630، ال...</t>
+  </si>
+  <si>
+    <t>6G53+W9G, شارع...</t>
+  </si>
+  <si>
+    <t>أبها 62527، ال...</t>
+  </si>
+  <si>
+    <t>طريق المشهد، ا...</t>
+  </si>
+  <si>
+    <t>6104 طريق المل...</t>
+  </si>
+  <si>
+    <t>6JM6+F2H، قرى ...</t>
+  </si>
+  <si>
+    <t>بجانب فندق الح...</t>
+  </si>
+  <si>
+    <t>7340، أبها 625...</t>
+  </si>
+  <si>
+    <t>6681، أبها 625...</t>
+  </si>
+  <si>
+    <t>6G7M+3V2، طريق...</t>
+  </si>
+  <si>
+    <t>6941 طريق المل...</t>
+  </si>
+  <si>
+    <t>7648، القرى، أ...</t>
+  </si>
+  <si>
+    <t>6JQP+G2P، قرى ...</t>
+  </si>
+  <si>
+    <t>6G99+R7P, طريق...</t>
+  </si>
+  <si>
+    <t>6G73+X34، سوق ...</t>
+  </si>
+  <si>
+    <t>6G52+G78، طريق...</t>
+  </si>
+  <si>
+    <t>6G52+X56، حي ا...</t>
+  </si>
+  <si>
+    <t>6FHP+FPP، طريق...</t>
+  </si>
+  <si>
+    <t>الوصايف، أبها ...</t>
+  </si>
+  <si>
+    <t>7648 المروج، أ...</t>
   </si>
   <si>
     <t>+966143220925</t>
@@ -1480,22 +1177,22 @@
     <t>+966555208325</t>
   </si>
   <si>
-    <t>https://www.alraya.com.sa/</t>
-  </si>
-  <si>
-    <t>http://www.panda.com.sa/</t>
-  </si>
-  <si>
-    <t>https://m.facebook.com/right.voice.3910</t>
-  </si>
-  <si>
-    <t>https://alrhalah1.com/</t>
-  </si>
-  <si>
-    <t>https://www.farm.com.sa/</t>
-  </si>
-  <si>
-    <t>https://www.snapchat.com/add/thoufeeqsuperma</t>
+    <t>https://www.al...</t>
+  </si>
+  <si>
+    <t>http://www.pan...</t>
+  </si>
+  <si>
+    <t>https://m.face...</t>
+  </si>
+  <si>
+    <t>https://alrhal...</t>
+  </si>
+  <si>
+    <t>https://www.fa...</t>
+  </si>
+  <si>
+    <t>https://www.sn...</t>
   </si>
 </sst>
 </file>
@@ -1903,2228 +1600,2228 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="G2" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>399</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>400</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
         <v>110</v>
       </c>
-      <c r="C5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" t="s">
-        <v>209</v>
-      </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="G5" t="s">
-        <v>401</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>402</v>
+        <v>301</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>488</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>403</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>404</v>
+        <v>303</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>489</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="G9" t="s">
-        <v>405</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>406</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>407</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="G12" t="s">
-        <v>408</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="G13" t="s">
-        <v>409</v>
+        <v>308</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>488</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="G14" t="s">
-        <v>410</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
-        <v>119</v>
-      </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="G15" t="s">
-        <v>411</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
-        <v>412</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>121</v>
-      </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="G17" t="s">
-        <v>413</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>122</v>
-      </c>
       <c r="C18" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="G18" t="s">
-        <v>414</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>123</v>
-      </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" t="s">
         <v>218</v>
       </c>
-      <c r="E19" t="s">
-        <v>247</v>
-      </c>
-      <c r="F19" t="s">
-        <v>317</v>
-      </c>
       <c r="G19" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="B20" t="s">
-        <v>124</v>
-      </c>
       <c r="C20" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>318</v>
+        <v>212</v>
       </c>
       <c r="G20" t="s">
-        <v>416</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
-        <v>125</v>
-      </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>417</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
-        <v>126</v>
-      </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
-        <v>418</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="F23" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>419</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>252</v>
+        <v>153</v>
       </c>
       <c r="F24" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
-        <v>420</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c r="F25" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>421</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>254</v>
+        <v>155</v>
       </c>
       <c r="F26" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>422</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="F27" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>423</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="F29" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="G29" t="s">
-        <v>424</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="F30" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="G30" t="s">
-        <v>425</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="G31" t="s">
-        <v>426</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="F32" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
-        <v>427</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="F33" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="F34" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="G34" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="F35" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="G36" t="s">
-        <v>429</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="G37" t="s">
-        <v>430</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D38" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="E38" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="F38" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="F39" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="G39" t="s">
-        <v>431</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="F40" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="G40" t="s">
-        <v>432</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="F41" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="F42" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="G42" t="s">
-        <v>433</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>267</v>
+        <v>168</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="G43" t="s">
-        <v>434</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="G44" t="s">
-        <v>435</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E45" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="G45" t="s">
-        <v>436</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="G46" t="s">
-        <v>437</v>
+        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D47" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="F47" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="G47" t="s">
-        <v>438</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="F48" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="G48" t="s">
-        <v>439</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="F49" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="G49" t="s">
-        <v>440</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="F50" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="G50" t="s">
-        <v>441</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
       <c r="G52" t="s">
-        <v>442</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D53" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="F53" t="s">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="G53" t="s">
-        <v>443</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="F54" t="s">
-        <v>352</v>
+        <v>251</v>
       </c>
       <c r="G54" t="s">
-        <v>444</v>
+        <v>343</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>490</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" t="s">
         <v>204</v>
-      </c>
-      <c r="D55" t="s">
-        <v>221</v>
-      </c>
-      <c r="E55" t="s">
-        <v>259</v>
-      </c>
-      <c r="F55" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="F56" t="s">
-        <v>353</v>
+        <v>252</v>
       </c>
       <c r="G56" t="s">
-        <v>445</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
       <c r="F57" t="s">
-        <v>354</v>
+        <v>253</v>
       </c>
       <c r="G57" t="s">
-        <v>446</v>
+        <v>345</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>491</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="F58" t="s">
-        <v>355</v>
+        <v>254</v>
       </c>
       <c r="G58" t="s">
-        <v>447</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="E59" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="F59" t="s">
-        <v>356</v>
+        <v>255</v>
       </c>
       <c r="G59" t="s">
-        <v>448</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="E60" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="F60" t="s">
-        <v>357</v>
+        <v>256</v>
       </c>
       <c r="G60" t="s">
-        <v>449</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>224</v>
+        <v>125</v>
       </c>
       <c r="E61" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="F61" t="s">
-        <v>358</v>
+        <v>257</v>
       </c>
       <c r="G61" t="s">
-        <v>450</v>
+        <v>349</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>492</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D62" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="F62" t="s">
-        <v>359</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="F63" t="s">
-        <v>360</v>
+        <v>259</v>
       </c>
       <c r="G63" t="s">
-        <v>451</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D64" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="F64" t="s">
-        <v>361</v>
+        <v>260</v>
       </c>
       <c r="G64" t="s">
-        <v>452</v>
+        <v>351</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="F65" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="G65" t="s">
-        <v>453</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
       <c r="F66" t="s">
-        <v>363</v>
+        <v>262</v>
       </c>
       <c r="G66" t="s">
-        <v>454</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="F67" t="s">
-        <v>364</v>
+        <v>263</v>
       </c>
       <c r="G67" t="s">
-        <v>455</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="F68" t="s">
-        <v>365</v>
+        <v>264</v>
       </c>
       <c r="G68" t="s">
-        <v>456</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E69" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
       <c r="F69" t="s">
-        <v>366</v>
+        <v>265</v>
       </c>
       <c r="G69" t="s">
-        <v>457</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="F70" t="s">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="G70" t="s">
-        <v>458</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E71" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="F71" t="s">
-        <v>368</v>
+        <v>267</v>
       </c>
       <c r="G71" t="s">
-        <v>459</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D72" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="F72" t="s">
-        <v>369</v>
+        <v>268</v>
       </c>
       <c r="G72" t="s">
-        <v>460</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="E73" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="F73" t="s">
-        <v>370</v>
+        <v>269</v>
       </c>
       <c r="G73" t="s">
-        <v>461</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D74" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
       <c r="E74" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="F74" t="s">
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="G74" t="s">
-        <v>462</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D75" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="F75" t="s">
-        <v>372</v>
+        <v>271</v>
       </c>
       <c r="G75" t="s">
-        <v>463</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E76" t="s">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="F76" t="s">
-        <v>373</v>
+        <v>272</v>
       </c>
       <c r="G76" t="s">
-        <v>464</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D77" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="F77" t="s">
-        <v>374</v>
+        <v>273</v>
       </c>
       <c r="G77" t="s">
-        <v>465</v>
+        <v>364</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D78" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E78" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="F78" t="s">
-        <v>375</v>
+        <v>274</v>
       </c>
       <c r="G78" t="s">
-        <v>466</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="E79" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="F79" t="s">
-        <v>376</v>
+        <v>275</v>
       </c>
       <c r="G79" t="s">
-        <v>467</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E80" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="F80" t="s">
-        <v>377</v>
+        <v>276</v>
       </c>
       <c r="G80" t="s">
-        <v>468</v>
+        <v>367</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D81" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E81" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="F81" t="s">
-        <v>378</v>
+        <v>277</v>
       </c>
       <c r="G81" t="s">
-        <v>469</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D82" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E82" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="F82" t="s">
-        <v>379</v>
+        <v>278</v>
       </c>
       <c r="G82" t="s">
-        <v>470</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="E83" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="F83" t="s">
-        <v>380</v>
+        <v>279</v>
       </c>
       <c r="G83" t="s">
-        <v>471</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D84" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
       <c r="E84" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="F84" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="G84" t="s">
-        <v>472</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>214</v>
+        <v>115</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="F85" t="s">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="G85" t="s">
-        <v>473</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="E86" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="F86" t="s">
-        <v>383</v>
+        <v>282</v>
       </c>
       <c r="G86" t="s">
-        <v>474</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D87" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="E87" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
       <c r="F87" t="s">
-        <v>384</v>
+        <v>283</v>
       </c>
       <c r="G87" t="s">
-        <v>475</v>
+        <v>374</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D88" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="F88" t="s">
-        <v>385</v>
+        <v>284</v>
       </c>
       <c r="G88" t="s">
-        <v>476</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="E89" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="F89" t="s">
-        <v>386</v>
+        <v>285</v>
       </c>
       <c r="G89" t="s">
-        <v>477</v>
+        <v>376</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D90" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="E90" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="F90" t="s">
-        <v>387</v>
+        <v>286</v>
       </c>
       <c r="G90" t="s">
-        <v>478</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="E91" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="F91" t="s">
-        <v>388</v>
+        <v>287</v>
       </c>
       <c r="G91" t="s">
-        <v>479</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="E92" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
       <c r="F92" t="s">
-        <v>389</v>
+        <v>288</v>
       </c>
       <c r="G92" t="s">
-        <v>480</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="E93" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
       <c r="F93" t="s">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="G93" t="s">
-        <v>481</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="E94" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="F94" t="s">
-        <v>391</v>
+        <v>290</v>
       </c>
       <c r="G94" t="s">
-        <v>482</v>
+        <v>381</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>116</v>
       </c>
       <c r="E95" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="F95" t="s">
-        <v>392</v>
+        <v>291</v>
       </c>
       <c r="G95" t="s">
-        <v>483</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="E96" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="F96" t="s">
-        <v>393</v>
+        <v>292</v>
       </c>
       <c r="G96" t="s">
-        <v>484</v>
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="E97" t="s">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="F97" t="s">
-        <v>394</v>
+        <v>293</v>
       </c>
       <c r="G97" t="s">
-        <v>485</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D98" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="E98" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
       <c r="F98" t="s">
-        <v>395</v>
+        <v>294</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D99" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="E99" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="F99" t="s">
-        <v>396</v>
+        <v>295</v>
       </c>
       <c r="G99" t="s">
-        <v>486</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
       <c r="D100" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="E100" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="F100" t="s">
-        <v>397</v>
+        <v>296</v>
       </c>
       <c r="G100" t="s">
-        <v>487</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
